--- a/data/evaluation/evaluation_South_Summer_Eggplants.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3388.981673436923</v>
+        <v>3372.907741269613</v>
       </c>
       <c r="C4" t="n">
-        <v>16673926.33332191</v>
+        <v>16513347.56335644</v>
       </c>
       <c r="D4" t="n">
-        <v>4083.37193178896</v>
+        <v>4063.661841659126</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2039114898382046</v>
+        <v>-0.1923171825154499</v>
       </c>
     </row>
     <row r="5">
